--- a/biology/Botanique/Isoetales/Isoetales.xlsx
+++ b/biology/Botanique/Isoetales/Isoetales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Isoetales sont un ordre de plantes de la classe des Lycopodiopsida. Cet ordre est représenté par une seule famille actuelle, les Isoetaceae, et plusieurs familles et genres fossiles, dont les spécimens les plus anciens datent du Carbonifère[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Isoetales sont un ordre de plantes de la classe des Lycopodiopsida. Cet ordre est représenté par une seule famille actuelle, les Isoetaceae, et plusieurs familles et genres fossiles, dont les spécimens les plus anciens datent du Carbonifère.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Isoetales a été créé en 1874 par le botaniste bavarois Karl Anton Eugen Prantl, publié dans son ouvrage Lehrbuch der Botanik. Le nom est formé d'après celui du genre type, Isoetes, également seul genre actuel[2]. Les noms Isoetariae Koidz., 1938
-et Isoeteae Barlinge, 1830 sont synonymes d'Isoetales[3].
-Une alternative à la classification selon ITIS      (2 juillet 2022)[4] (boîte en haut à droite de l'article) est celle selon The International Fossil Plant Names Index (IFPNI)                (2 juillet 2022)[5], qui place les Isoetales dans la sous-classe des Isoetidae, classe des Isoetopsida, sous-division des Isoetophytina, division des Isoetophyta, sous-règne des Lycopodiobiotina.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Isoetales a été créé en 1874 par le botaniste bavarois Karl Anton Eugen Prantl, publié dans son ouvrage Lehrbuch der Botanik. Le nom est formé d'après celui du genre type, Isoetes, également seul genre actuel. Les noms Isoetariae Koidz., 1938
+et Isoeteae Barlinge, 1830 sont synonymes d'Isoetales.
+Une alternative à la classification selon ITIS      (2 juillet 2022) (boîte en haut à droite de l'article) est celle selon The International Fossil Plant Names Index (IFPNI)                (2 juillet 2022), qui place les Isoetales dans la sous-classe des Isoetidae, classe des Isoetopsida, sous-division des Isoetophytina, division des Isoetophyta, sous-règne des Lycopodiobiotina.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des familles et des genres non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon l'IRMNG  (2 juillet 2022)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon l'IRMNG  (2 juillet 2022) :
 Chaloneriaceae †
 Isoetaceae Reichenbach
 Nathorstianaceae †
@@ -564,7 +580,7 @@
 Zoophycos A.B. Massalongo, 1855 †
 Isoetodendron W. Bock, 1969 † (incertain, non évalué)
 Annalepis P. Fliche, 1910 † synonyme de Lepacyclotes Emmons, 1856 †
-Selon The International Fossil Plant Names Index (IFPNI)                (2 juillet 2022)[5] :
+Selon The International Fossil Plant Names Index (IFPNI)                (2 juillet 2022) :
 sous-ordre des Isoetineae
 Isoetaceae
 Nathorstianaceae
@@ -574,7 +590,7 @@
 Isoetodendron
 Lepacyclotes
 Tulastrobus
-Selon la Paleobiology Database                   (2 juillet 2022)[1] :
+Selon la Paleobiology Database                   (2 juillet 2022) :
 Chaloneriaceae
 Isoetaceae
 Pleuromeiaceae
